--- a/report/2 Iteration 1/Hardware Analysis/Motor Black.xlsx
+++ b/report/2 Iteration 1/Hardware Analysis/Motor Black.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mortenhartvigsen/Projects/P5/report/2 Iteration 1/Hardware Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F74C3E-29CF-F046-96D5-C6665F14C1A9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0CE397-3861-C044-B366-9699F41083E4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{2969F772-B96C-5742-BEA6-9C3253BD3C1F}"/>
   </bookViews>

--- a/report/2 Iteration 1/Hardware Analysis/Motor Black.xlsx
+++ b/report/2 Iteration 1/Hardware Analysis/Motor Black.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mortenhartvigsen/Projects/P5/report/2 Iteration 1/Hardware Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0CE397-3861-C044-B366-9699F41083E4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50516E39-A050-EE48-9976-15212AD2607E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{2969F772-B96C-5742-BEA6-9C3253BD3C1F}"/>
+    <workbookView xWindow="54220" yWindow="-10480" windowWidth="13600" windowHeight="17100" activeTab="2" xr2:uid="{2969F772-B96C-5742-BEA6-9C3253BD3C1F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Motor Black" sheetId="1" r:id="rId1"/>
+    <sheet name="Motor White" sheetId="2" r:id="rId2"/>
+    <sheet name="Medium Motor" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Power/Degree</t>
   </si>
@@ -58,6 +60,54 @@
   </si>
   <si>
     <t>135,44 RPM</t>
+  </si>
+  <si>
+    <t>152,59 RPM</t>
+  </si>
+  <si>
+    <t>156,06 RPM</t>
+  </si>
+  <si>
+    <t>135,31 RPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101,39 RPM </t>
+  </si>
+  <si>
+    <t>68,08 RPM</t>
+  </si>
+  <si>
+    <t>34,48 RPM</t>
+  </si>
+  <si>
+    <t>151,14 RPM</t>
+  </si>
+  <si>
+    <t>137,83 RPM</t>
+  </si>
+  <si>
+    <t>101,71 RPM</t>
+  </si>
+  <si>
+    <t>69,01 RPM</t>
+  </si>
+  <si>
+    <t>34,50 RPM</t>
+  </si>
+  <si>
+    <t>225,56 RPM</t>
+  </si>
+  <si>
+    <t>213,64 RPM</t>
+  </si>
+  <si>
+    <t>160,72 RPM</t>
+  </si>
+  <si>
+    <t>107,55 RPM</t>
+  </si>
+  <si>
+    <t>54,45 RPM</t>
   </si>
 </sst>
 </file>
@@ -104,12 +154,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90A3CE4-7B8F-C249-8318-5AA6C4947917}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1521,10 +1572,152 @@
       <c r="E43" t="s">
         <v>10</v>
       </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851A5074-8A28-CB43-B700-D88AB9D7D884}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1">
+        <v>80</v>
+      </c>
+      <c r="F1" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41381A92-DCD2-C942-BE19-72CA33A03017}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1">
+        <v>80</v>
+      </c>
+      <c r="F1" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
